--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/19_Bolu_2018.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/19_Bolu_2018.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{097A3D74-52E8-40AC-AE72-4359B27F232E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3872F4A6-A3C6-436A-AB59-6F2F4830F4AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="692" xr2:uid="{7DA6DFA7-F98D-420C-9675-7FF2713FE25E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="692" xr2:uid="{F53F1D73-0A94-4957-9B34-0AA3048012AC}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="91" r:id="rId1"/>
@@ -937,13 +937,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{426410B4-6F92-47CE-BF09-A09F25A11970}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{3DBE4F63-B229-4F47-9AFE-2683780DAC32}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{0506AF72-7721-4564-9550-85126E3CAC78}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{EB0A6000-E1B1-4964-84E4-41F8B4E4352F}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{0FFA72EF-404C-48AE-9BA9-1EF04AF3CD86}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{140BFE1F-5946-4F2F-820E-C4089CB07357}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{073D69F7-857C-4F64-8697-317B02FB9815}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{D976FE43-B284-4AAA-AC49-60E4BDF290B4}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{2B8D2252-0645-43AE-8A40-ABEA8E8BF3CA}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{95B2BA1F-4543-4646-8AFC-ED666F72E070}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{0CD1A7F5-C97A-48B9-8D47-B98C59ED7D13}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{77A40982-444F-4D93-9872-40EDEFFD94E5}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{4B082004-90ED-4BD6-AEA8-7643172F18ED}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{B5F83AEC-1059-42E6-939F-42B82E867E73}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1313,7 +1313,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D5DFDFD-B578-4F6D-8C31-7DD21A473FFE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18F96344-8C06-4518-ABCD-F9998226D6BF}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -2531,18 +2531,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B0C302C4-47C3-41B9-8E24-8B93DACC40F5}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F61BADD0-EED3-4F2A-BBCA-9FD7226D2E2D}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F808BF02-899E-4FC4-B312-A6D40EC238B8}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{833F8C45-30B4-4EEF-9FEA-017D94B55D14}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6A06731A-AD9C-47DB-8C56-1D787FB61CAB}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3269BB0D-0F3A-453B-897D-F44CB0E62500}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5834AF87-2CA8-447B-899B-A282A827F53F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C938BA54-C286-4D8C-9C2A-C5C952D686AF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D60B42ED-C000-4F9C-8A67-615FC2F61C45}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{698239BC-89FC-4F12-8F40-3F8CFDFE91F2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A445FD1E-FDBA-4354-AAB5-B63D6E456C37}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{92E12237-F926-41AB-9277-7525ED68EE22}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0136ED60-2DBE-4EB9-9250-2C8149184296}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0EF532F4-F72C-44DC-945F-DAB6639EB898}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{6FAA0E9B-329A-4AC6-811A-BBA54AB2AFB4}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3CFDAE43-552F-4F43-8CA2-4C8240F7C8E4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F1808D5B-EB8F-4E25-B78D-18A25EBF9F52}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2B387E95-C73C-4A6F-BEB5-2F2CA4879195}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{293AAF2E-AE06-4EA3-A2FB-18C91C40B8B6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3C3BC91A-60A0-45E9-9ED5-000EE43DE228}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E11B021C-F849-457D-9FB1-4770638EF030}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9A822365-A0FE-490B-A9BB-15E62E0D511D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{06F2918A-AA0A-4CE0-AAD7-4E01BDF5EE6C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E81641E8-E32B-4009-8DDF-EB4B66D29766}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2555,7 +2555,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B078496F-FE78-4F3F-89EB-89D733428D45}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8241EC1-93EF-46A5-AF8E-2983C878D8D5}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -3761,17 +3761,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7C33A53E-C45A-4D12-8409-19E27242785B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{46567DF0-5E65-4A57-9FDF-BD81D166BF27}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{DE88D552-2E89-4893-98E7-1C88E6F2B731}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DDB60BF9-3660-46B3-8662-413743169B45}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{53DB9AF5-B759-4ACE-9CB6-1B3641608497}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E7CCBBE8-69EF-499C-AD28-2B939D2B0BA7}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{571C2F9B-974E-4BA4-87CB-4D3D125FD88E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{431774E8-35A1-4994-AE88-1023528826AB}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4FC69F9D-7D6C-4BE4-9FBA-DA1DC9EAB4DD}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A06D751F-F711-4B33-9CC9-69E9579B3186}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EB52913F-2AE1-46FE-BF8F-BD17355DC068}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9FD2227F-6DBF-4D93-A8EC-9B6D955D4A34}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{28094F17-A313-4C36-B9DC-6EFB6F869D0E}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B86FCD89-4AB1-4DBF-BAB3-9D9736998E2F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{55563B05-5BAA-4F19-963E-9BB414F987BD}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C92A848E-3C6D-4FE9-9EA8-105686881A5F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{ADC7B9D7-B2B8-4E07-B406-6967BC0FE05E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4C7E32AA-7DCF-4576-80C9-D5B126741C1F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8B2C5D72-9ABC-421C-8C60-3DCB9DEA9C93}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E22C1AFA-D741-4D01-9445-273B704447CD}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8F3A442F-9D38-4850-864F-38486445A4EA}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{310DEED9-B0E4-4C86-BC87-401A2F2A6AC0}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3784,7 +3784,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9093894-995F-440A-83BC-2C696EFF7C3C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAE6E4E9-F7B4-4622-A51D-E585560487DB}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -4982,18 +4982,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{50292CFC-EE6C-4F3E-A6B2-44F444A902AE}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B5180CC6-85D2-4256-8B6F-C1E6252DC8C8}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{5A5781AF-C526-475E-9368-35660900900A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D2B07483-347D-4A7A-BA7B-2C3236BEA0C7}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2D534E30-99CF-442A-AF29-0B21245CE7FE}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{83B64B1A-C365-4F7C-A521-E7515FC5FE65}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7C39C2AB-7921-4DF8-93BC-1318BDF974F6}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E02E967B-1086-441B-A365-DBB44856EAD1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0333F8E1-3B8A-4ED0-90E1-DA7E6DE82AED}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2CDB4C9C-681C-441B-8AF6-DD458F0ECDCE}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C27215CF-92B3-4EFD-A26A-C187DDBBD585}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{04D6BE4E-BF1D-4871-B422-B042B5D27339}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F89B3DCC-FF4D-498E-9F18-C868FE5BFE45}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1100E127-61B5-4141-8922-0C8953CA9E19}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{625AEC43-911F-4FAB-BB8E-13585077DA8D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{17945F3B-0D94-4AB0-ACDE-86DBDF4C0572}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{110A8B95-F217-4F5E-9BFD-12DA103721BA}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{70E2DEB1-394E-4884-84D2-CEED8660629D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{182FE50F-17DE-4F20-A3DA-9FCB6C7D8FFD}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{897341C0-044D-432D-9359-98B289EE5FF3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{56A86DE6-ED3F-4D9E-9E67-E83AB16A1FEA}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{005A4704-F0CE-429A-A37F-A21142F328C2}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6BB318F4-568B-41B1-B37F-3719CAEB6128}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4BEA183F-DF0A-4E04-95EC-30136CE4BE9C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5006,7 +5006,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{218A8922-141A-477C-847F-0B79FC67AB4C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E64A7F38-7C33-4306-A699-1CA96B4AEE00}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -6204,18 +6204,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E8D91E7A-3FB5-4F46-82B8-A8A5848B0793}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D5B379A8-E018-40F9-AFEF-B131FEA3B4CB}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{03479488-ED2E-4478-B36A-118EA545E662}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{333A0940-CCDD-4399-AF16-EC9CD07969CC}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BD41236B-E4CB-424E-9934-6FFAD736D1FE}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{07514832-2A69-4B93-A4C9-9A37B6E41F2B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{87B42B25-ABAB-472C-8F28-401234948E7F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A4C4CDA2-0AF7-45BB-80D2-804F4E21FF2F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C1A04B6F-8B00-4A42-8215-A56FD6BE69FA}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{20A56F39-A949-4782-9FCA-32DB48155836}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{45530420-1259-4E6C-9A21-FB7AEF6C6842}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AA5B72F0-11BE-4000-902C-ABCF5479351B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{772B68D8-BEE7-42EC-9EE7-6BB3E6438806}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D2453D09-092B-4BA0-A4C7-24FFA10E16DF}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{206AC646-1913-4ABC-A59F-536C5D21C6CB}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{EA5B2F8B-3934-497E-9F90-AE5F351CC9A2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DF631B01-8A53-40E1-ABA3-0A793FA7C1FD}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{202A31EB-944E-4AD0-920D-05E9B98819B5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8629AB03-991D-4499-9263-E26D35148F9A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F2D15D09-4951-4803-9914-FE23CC60F97A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7708D96F-E865-4640-A258-48CC48814078}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4D69D327-3317-451A-AD85-AA30CC5B09D1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FB16C87E-E7AA-4BDC-8341-60C37D55961E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{442C570F-3CD9-4BE7-95A6-037CCDAC8B5D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6228,7 +6228,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D95FAE43-0D3F-4D56-B19C-860476102FDC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{537DD96A-A8F5-4270-A509-B22CE7EC245D}">
   <sheetPr codeName="Sayfa11"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -7446,18 +7446,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{378262C4-D5F0-464E-BC1B-01848C7A2506}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2327B096-44F5-482F-9A73-EE6E39F6F169}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{68DF5E4E-52DC-48B1-81BB-1C6D88346B9B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{07648372-5F64-4853-BC39-360FA75D94C6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6836964D-8F81-4B49-A767-F208F51CACB2}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{82EC314B-F0A9-43FC-9786-187CF20E9375}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9CD9F086-48DF-4F37-BD51-C9FFC115B15D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D700E4AB-801C-471B-B440-E0C1A5124A3C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F30D2730-5EBE-4CD6-B83A-6A5F958F3A4C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{42C328A0-FA3D-47FC-AAC6-BECE712C380E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F7941F98-D06F-4304-9460-39D898134309}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0C3C0233-16D9-48D0-B92C-EC95C6178C22}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FF397B84-0F14-47C6-BC57-C9CFD599C91D}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{AEF3661F-CD2C-42F0-9936-F7C1374D4B26}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4D450344-F890-463A-9E58-60016C542CE0}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C9BBD609-D0EA-41A0-9D84-3B0A676B341F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{48E28749-AAE6-40D3-846F-E6F52D5408F4}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B3536E77-034E-4615-AB3E-CE197103F000}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C3871BC1-D5D8-4D7E-B094-13BA2F99527B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8AC12ADB-118C-4FE9-9714-B1319ECE3B07}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A19891AF-2988-4791-B683-6768E26E4B19}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9487D731-D159-4F57-A29A-E20162F835E3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E5931627-BF2B-4377-BAC5-AC7D1D927030}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3E08D041-7846-4BED-A12A-E5C3F42619B0}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7470,7 +7470,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80E06605-600F-41B5-B9E7-2A54348DAC67}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE3CD481-0348-4DE9-BC04-F325CC771C16}">
   <sheetPr codeName="Sayfa10"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -8688,18 +8688,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8551B256-ECE4-40A6-B8D2-0F74093729D5}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0CF6B916-2110-4B69-8F51-2B8217AA081D}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{BA363D8D-E887-4F70-B69B-06715FFC39AE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7ED61AC2-CB50-4E9B-BFD6-36E0C858F0F7}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DC347F97-F420-4BCD-92B4-B7675FD44129}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{74B273E5-EC47-485E-A632-3CC2236D4401}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{487B3EF9-A9E4-467B-A304-3FB354FC8F03}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A93E7476-AE37-44DC-B0DB-3D936B65914E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{87C02D1C-2137-475F-8DF0-FCCAF35D16F9}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B4BF9645-20FE-4BFC-B82E-E9FE01DA0C68}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A0D92C15-2091-4047-B5C3-C2BFB8DAD543}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FAC86DBB-69F6-4FCA-8CB6-6B1AA9F60489}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{793CED92-9460-4E5D-B1D7-EB1EF81DD5C7}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E405B9D7-F3C5-4953-A5C1-567C067F4F4F}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{26DADC58-5423-407D-87DC-50F2FDAB841E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{70BA2C95-3AEC-485B-BF96-332EDE3FCB3F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{886FA9E2-88B0-49DC-A708-35CA767E5C99}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A906AC7C-22A3-4E30-9836-D44D6042E6AB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EB8F5D59-65EC-4316-8381-FA2988115F9D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{397F82A7-8096-4B36-9E6D-A2FDF4386A50}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{23C77D96-AC1D-4B80-8914-6025740A2A9E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9D5877F5-D5CC-46B7-B934-C3FB25F3CFEA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8D610AB7-DD29-4D0C-ABE7-4A86EBEDCE93}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1EE435F6-2FBF-4226-9421-8BD83B5803AD}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8712,7 +8712,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8071B026-DFE9-4BC2-B56F-3AC4887847E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B6057C0-A6EF-4B60-9B8B-A33424FF44C8}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -9930,18 +9930,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BA60EEA7-C9E1-4F95-8A11-5736D4BCE551}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8906FE1C-4B2F-4921-9529-98C7397DC1D8}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{7814C93B-B334-4C31-9BBB-B6DD421CD001}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{987DBBCF-407D-4CD7-BB8A-21EB4F433F4B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2C5394CE-8960-4DA3-A7B8-FE06DA36030D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{AC15D2FF-8D6C-4B8C-A325-D04C09538AC9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C3D6DB88-02D4-4459-9516-7DC8F6AC5ED4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B17A4921-F567-4B6A-8DDB-6200D4597247}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{085CD727-5BFB-4654-9E26-3C2667D06063}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D6DC93E0-EECA-470F-BD50-96425750C072}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5B035C44-E6B1-45FB-A97F-A897ACE2ABBF}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4878F03E-31DE-4EF9-B478-E4AC813364B1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BD7B0473-EBEB-499A-8ECF-310BDE175114}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0D2C98A9-8930-45CB-917F-D4A98A1E4F8B}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F20483B3-3278-4BE9-AFF7-983C6F012B38}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{82FD7018-7F5A-4B69-BBB2-908495B3317E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{18C0D688-AC76-4CDE-8872-17A311E2B8AA}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{45AEE9A9-74A8-4A64-AACF-C740EA1649CB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B4E040C7-C1D9-4CCC-9F10-96FABB0E7D63}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EC5A5B3F-7034-427F-BD7E-9C1E0DE2E351}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{51364B33-5692-4E12-8C25-3ACEC2F61E31}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D5526389-C130-4682-A077-3AB0CAAF5696}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9952E749-864E-44B1-B7A4-4247514A6726}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E3118282-ECA8-4BCA-9F33-11A439EE7EC5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9954,7 +9954,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF54214A-E9CB-44A4-9B5B-D389639842D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA47862B-75B3-4D4A-86D9-90A898225198}">
   <sheetPr codeName="Sayfa8"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -11172,18 +11172,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FBC91D35-EDBC-4025-80F9-6EC6329FB98B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{71DFBDB1-DCAA-415C-80D5-4E809F0E7AE0}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D4013428-F84A-467F-B93F-87B443C741A4}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8C4FC1FB-9C63-40F0-AE9F-E4DC03E5AE5B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{831F9C06-E4BA-4133-ABF0-9079DD40974F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{00BFFCFC-2E55-4940-8719-75430EBE3827}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B9BD288E-68C8-48CD-B455-ED9743A7AC64}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4E5316AF-9107-41F8-8A6F-A470D549F174}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0C0C1BA3-F5DA-465F-8E33-01FED0F260B8}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D3C4EF84-8F03-448C-B920-9B47A6D5E3BF}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FF4412B4-3E03-4615-B7A0-FB2FACCF4770}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{82E21C2A-38A8-4AD0-B082-03B5DC06C5B7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FFF04DBF-ED84-436F-A9B8-88EF4E8EC252}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{AA5460EC-C28A-4919-8E57-11FEBC6C9DF5}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{92572B9F-B4B1-40BC-A4D5-CE8081B3328D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B966DD6D-59DE-429B-9CEE-68884D1C0DFD}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{79EC51C6-785B-4181-A7A8-8E062BEE24FA}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1112B970-AC17-4B0D-B600-DE84288C5BD6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4671D24A-52E8-445E-8645-9938D4D6BBA2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BEBD6B24-3F65-487D-9205-BE4923377625}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6CEF16E0-1B23-420D-8E93-FC52ED425811}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6FE556AC-F0F7-4AFF-843B-6B6A3BF681DE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7AE15173-5E27-4B7B-871F-77BFF11E16A0}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F4C785AF-C1C5-46BA-8635-319B2F695191}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11196,7 +11196,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEC94C62-E3BB-462F-889C-F8C0412C5ABE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C24697-86D9-467D-AC08-69368CDA885B}">
   <sheetPr codeName="Sayfa9"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -12406,18 +12406,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DD1FE7FD-0123-438C-BB52-60D0DEC04390}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{49D56CA9-98F1-4937-A642-5C1205EE59C8}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{6EA8CCCB-C07A-41A4-A359-30C2A28065F6}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D80B5F00-B02E-4A60-A47B-91BA59F1AF04}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2B06565E-5E70-470D-AB99-7674F3E24A69}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9DFE1D1D-0933-4C89-9E55-94BF23597B1B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{723E79F6-44A3-4A55-96DD-B93959A6B6DE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D4D7B560-F6E4-4BB8-B650-CD50F519C68C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E5190B9F-1CDA-4FD2-A685-E75C47FE353B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C9E695C5-16D5-493A-9577-CACC28F0B4AB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1CF8371B-BFE1-4DD5-9530-568F0D59D3E8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{05FEE639-03AC-4DCC-9D12-98697E2C29F2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E0C7066F-F257-4AA8-82EE-8072353EADDF}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C227A41E-45B7-4340-8D69-0E19FB1701A0}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4E4F1B38-56A6-40FC-8AD8-B9B05EDA2E54}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6E293148-2C18-47CF-8BB0-F1C09836F42C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{837A5625-0B24-4825-BA33-AB7AD1B64240}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F951E896-4DDE-4370-8AE8-81EAB34E340E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B65D538C-50CC-430A-8AC8-1C0804294445}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E03E4410-EB40-4992-AE82-C683640C5EB9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3A470387-AA3E-4FC2-954E-D9DA71A18AB0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{721B5CC0-402F-413A-88AF-BE0F53DA0FE0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E3B639C3-8D45-4927-9ECD-D337CA26899D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2DE89179-19A6-4557-BFB9-526A5F1E2389}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12430,7 +12430,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E5440A2-7276-4BCB-BC4F-BEC4E155993E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01F48A62-D710-4204-8430-A2060C5E143A}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -13640,18 +13640,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AE07DC45-76F9-4A07-B9CC-239D1AA8D9A2}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{479EA3DE-0DA5-4CFA-BA3D-DD128737F249}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{484E2645-AF52-4471-BC28-95D7E11FB597}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2D1E75F0-B472-4B3A-B4C9-893E96B29995}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{99526574-A4C3-4641-8A44-EAB3744592EE}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BECEAA8C-59AB-4BE6-9769-54405A94B4C0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D03849C3-202F-4506-9E60-C42727E4EF0C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{049D5B71-724F-439D-B7AA-C435790122B2}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3CF74897-C993-4D3B-9980-71CD848DCABC}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{332B1159-B63F-4C6E-BA23-61F2CD2173A3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1EEEB810-F7A7-46BD-9009-75C39EF87BBE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{34A96A97-1F19-4DF9-985A-D2A2FBDEB083}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C642B083-15A3-4652-9F3D-9A7E8DE1E9D0}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{960022AA-C578-4224-91CC-63EC559B26E8}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{EBAA5A25-5249-4A97-A73E-7D5F6E22B4DC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{046A08EF-97EC-4974-9270-049443A26FE9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{72E1B310-18ED-4036-8F72-617E783AF412}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{178137CF-C256-4B9E-AD85-FF3D1325AF8D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2C2FE661-DE2A-40ED-AAF5-5EC5D0990BEA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1A87DDA3-FE19-4A31-99C5-26A28D9CC4B5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{45AABFF3-4441-4BA2-A612-82188A3291C7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C01035BD-AA3D-4D36-8246-F3DD5C890574}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C6867120-490E-486B-8273-2CBCF92C876A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D95CF732-7244-45DC-A3E0-6AB088B86339}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13664,7 +13664,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E49B783F-D58C-4B5A-8B1E-5F5D2096E76C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C4FB270-F23B-491F-9B84-8C0B4CF4A481}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -14870,18 +14870,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C0A57380-40D9-4980-A40D-F2FBE0283833}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0763B494-B14E-47A7-B2AE-C27A89B6C9E8}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4F10694A-4FA9-403F-A6B7-177FFD26A956}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D5857BD8-247B-4CB5-A051-88F310C7F6D8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{28782D69-62A3-483F-B202-A8BE9CCC7C74}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B18DD270-2822-40FA-BBE2-6D815BC16112}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9039A17F-E8BC-4A6B-932E-47C5EFA0BB8F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B2F3F82C-0B50-4F09-AE87-E4E6180F9751}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{56043B60-EBD8-49C0-B1CD-D4A912289539}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7F1222FC-213F-4811-9A2B-C7F7D9D7CE1D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8ADBBBD9-008A-46B5-91E5-0FE0E1AF726E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{006996EE-B9F5-4A60-8D9E-43829C1117D7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B82D4551-B97C-49FE-8FB2-0B68C4336C71}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{20AFAFF9-A35C-4D45-AC9A-97BBB70B23AE}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B3F8E454-2AA4-4616-95B6-824D3F8D1379}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2204D592-B531-4EF6-8BF4-FAD3662A8F2F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{60041BB2-A7B9-447A-868B-DA0BB5704261}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C1831242-C5CC-44B3-AB2A-DBE362C091B7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EABBF870-F0C0-41EC-B964-B908AE2B4F13}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F6ECF3B0-E94A-4904-A355-76B493D0F892}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B484D793-CE8A-4F0F-B9CA-44B7BBAEE6A2}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7FC8E84C-E829-4ADA-8D97-906E6945D386}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B04BF727-A95C-4041-989A-EDAC952F722D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2BBFE7E5-E96D-4C9C-9482-1E9A7BCE7D7C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14894,7 +14894,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54DD8100-7AF8-4A63-896C-6BAFE7A25BBE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BD2C2C1-500E-4A5D-B79A-1E2DAEBE47B2}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -16100,17 +16100,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7CACD537-9E84-4CF4-9189-2EEA9C1F00CA}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{90A606F4-8B7D-4FF6-8B8A-29DDC26A5494}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{24485346-391D-4A35-B9B5-D60335FC77F7}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{65ED8B90-A144-43DC-9723-5D15A5A28316}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2359F121-51D7-48BB-8DE4-E0EA96A00147}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C985248F-D14F-4AB9-B4F2-60A1255196CB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3B7E1E4A-78C1-43BA-B817-352D2EF4E56C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C1F3FBB4-9398-44F8-AFEB-5A37AEFEBCD9}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1ADE8FE9-0589-4D39-A51C-07F6E876575D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6D4E14EF-3900-4824-9C5A-63225B26D0B6}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4BDD8C10-61CB-4A08-9CA8-4B281EC01BD1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{78F10379-143F-4DE3-A7BA-D438A6841E98}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{494F2B27-0E17-42CB-9541-B192D0E8F948}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{9629F328-4628-4458-AB20-0D38D538720B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BB9DD696-6F3B-4297-89F8-C546126F89DA}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{AEF05FAF-3EBB-4184-B054-3813DEB0266D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0C7AEE2D-67D2-4374-8C92-142F306E8A66}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A4B4B7E5-741B-4E08-98CA-2A35B3B39CA4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FCEF2D0D-1A16-4031-B022-34A654E5C102}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{303D6CE4-0765-4131-A37F-782869F974D6}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2F5562C1-AF26-46F3-94A8-F2129076B3E0}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{19A13EF5-E6D0-4068-9D0B-CEB8379F5B31}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
